--- a/stimuli/faux_pas/faux_pas_excel.xlsx
+++ b/stimuli/faux_pas/faux_pas_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/callithrix/code/Python/MultiTaskBattery/stimuli/faux_pas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1072492D-7BDF-AE46-9B5F-7C5ABF02FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055E944-2D44-5645-B25C-6FE2963899F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{0A88778E-248A-6F46-8352-3D3F872413FA}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="142">
   <si>
-    <t>story</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Did Jill just move into a new flat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vicky was at a party at her friend Oliver’s house. She was talking to Oliver when another woman came up to them. She was one of Oliver’s neighbours. The woman said, "Hello," then turned to Vicky and said, " I don't think we've met. I’m Maria, what's your </t>
   </si>
 </sst>
 </file>
@@ -875,9 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E7655-8A6B-9A4C-A983-E70D5A6ED4E6}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -886,1314 +884,1314 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
       <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
       <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
         <v>127</v>
       </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
         <v>73</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>74</v>
       </c>
-      <c r="I27" t="s">
-        <v>75</v>
-      </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>45</v>
       </c>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
       <c r="J29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s">
         <v>56</v>
       </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
       <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
         <v>84</v>
       </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
         <v>87</v>
       </c>
-      <c r="H33" t="s">
-        <v>88</v>
-      </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" t="s">
         <v>90</v>
       </c>
-      <c r="H34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" t="s">
-        <v>91</v>
-      </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
         <v>98</v>
       </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
         <v>99</v>
       </c>
-      <c r="H35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" t="s">
-        <v>100</v>
-      </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
         <v>107</v>
       </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>108</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>109</v>
       </c>
-      <c r="I36" t="s">
-        <v>110</v>
-      </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
         <v>113</v>
       </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>114</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>115</v>
       </c>
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
         <v>120</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>121</v>
       </c>
-      <c r="I38" t="s">
-        <v>122</v>
-      </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
         <v>127</v>
       </c>
-      <c r="I39" t="s">
-        <v>128</v>
-      </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>132</v>
-      </c>
       <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
         <v>134</v>
       </c>
-      <c r="I40" t="s">
-        <v>135</v>
-      </c>
       <c r="J40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" t="s">
         <v>136</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>137</v>
       </c>
-      <c r="I41" t="s">
-        <v>138</v>
-      </c>
       <c r="J41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
